--- a/output/part1/grs_size_inv2.xlsx
+++ b/output/part1/grs_size_inv2.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.323685730455642</v>
+        <v>12.18812099985124</v>
       </c>
       <c r="C2" t="n">
-        <v>7.227551890309769e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06812567426176797</v>
+        <v>0.00736770806979629</v>
       </c>
       <c r="E2" t="n">
-        <v>-461.6752429542309</v>
+        <v>0.8929020919339536</v>
       </c>
       <c r="F2" t="n">
-        <v>213144.0299568482</v>
+        <v>0.7972741457800305</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.372205874819731</v>
+        <v>12.52358522724342</v>
       </c>
       <c r="C3" t="n">
-        <v>5.451195050909519e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06862198692682529</v>
+        <v>0.007355251178049704</v>
       </c>
       <c r="E3" t="n">
-        <v>-465.0386631728869</v>
+        <v>0.8913924250749858</v>
       </c>
       <c r="F3" t="n">
-        <v>216260.9582456258</v>
+        <v>0.7945804554810642</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.318302595691782</v>
+        <v>13.61217423570494</v>
       </c>
       <c r="C4" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06681913558316863</v>
+        <v>0.006486985216250005</v>
       </c>
       <c r="E4" t="n">
-        <v>-452.8210691290485</v>
+        <v>0.78616614760829</v>
       </c>
       <c r="F4" t="n">
-        <v>205046.9206471745</v>
+        <v>0.6180572116452596</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.380962245343467</v>
+        <v>13.8912692044324</v>
       </c>
       <c r="C5" t="n">
-        <v>5.173639294753229e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07092305652645552</v>
+        <v>0.006812886420499159</v>
       </c>
       <c r="E5" t="n">
-        <v>-480.6325912767305</v>
+        <v>0.825662537025618</v>
       </c>
       <c r="F5" t="n">
-        <v>231007.6877973847</v>
+        <v>0.68171862504758</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.360459263835701</v>
+        <v>13.81768963282079</v>
       </c>
       <c r="C6" t="n">
-        <v>5.828670879282072e-14</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06730251466957923</v>
+        <v>0.006478520402170357</v>
       </c>
       <c r="E6" t="n">
-        <v>-456.0968408491216</v>
+        <v>0.7851402858168145</v>
       </c>
       <c r="F6" t="n">
-        <v>208024.3282325489</v>
+        <v>0.6164452684125092</v>
       </c>
     </row>
   </sheetData>
